--- a/savory.xlsx
+++ b/savory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tewro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/6634406123_student_chula_ac_th/Documents/Documents/GitHub/Food-Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE1389F-1798-498E-B277-26F0695BBE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{5CE1389F-1798-498E-B277-26F0695BBE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5597652A-132C-45BE-9255-FFCCA1AF9A30}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,18 +41,12 @@
     <t>protein</t>
   </si>
   <si>
-    <t xml:space="preserve">fat </t>
-  </si>
-  <si>
     <t>carbohydrate</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t xml:space="preserve">meat </t>
-  </si>
-  <si>
     <t>soup</t>
   </si>
   <si>
@@ -356,10 +350,6 @@
     <t>pickled-fish</t>
   </si>
   <si>
-    <t xml:space="preserve">
-one-dish-meal</t>
-  </si>
-  <si>
     <t>fried</t>
   </si>
   <si>
@@ -385,6 +375,15 @@
   </si>
   <si>
     <t>ก๋วยเตี๋ยวเย็นตาโฟ</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>one-dish-meal</t>
+  </si>
+  <si>
+    <t>meat</t>
   </si>
 </sst>
 </file>
@@ -447,6 +446,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,66 +751,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" customWidth="1"/>
-    <col min="3" max="22" width="12.7265625" style="1" customWidth="1"/>
+    <col min="3" max="13" width="12.7265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" style="1" customWidth="1"/>
+    <col min="15" max="22" width="12.7265625" style="1" customWidth="1"/>
     <col min="23" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="78" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.8">
@@ -815,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>83</v>
@@ -865,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1">
         <v>67</v>
@@ -915,7 +920,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>198</v>
@@ -965,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>48</v>
@@ -1015,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>112</v>
@@ -1065,7 +1070,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>152</v>
@@ -1115,7 +1120,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>191</v>
@@ -1165,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>181</v>
@@ -1215,7 +1220,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>219</v>
@@ -1265,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>132</v>
@@ -1315,7 +1320,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>136</v>
@@ -1365,7 +1370,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>136</v>
@@ -1415,7 +1420,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
         <v>236</v>
@@ -1465,7 +1470,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>174</v>
@@ -1515,7 +1520,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>165</v>
@@ -1565,7 +1570,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
         <v>118</v>
@@ -1615,7 +1620,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <v>144</v>
@@ -1665,7 +1670,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
         <v>193</v>
@@ -1715,7 +1720,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
         <v>158</v>
@@ -1765,7 +1770,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
         <v>169</v>
@@ -1815,7 +1820,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
         <v>174</v>
@@ -1865,7 +1870,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <v>231</v>
@@ -1915,7 +1920,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
         <v>47</v>
@@ -1965,7 +1970,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
         <v>104</v>
@@ -2015,7 +2020,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
         <v>114</v>
@@ -2065,7 +2070,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C27" s="1">
         <v>173</v>
@@ -2115,7 +2120,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
         <v>292</v>
@@ -2165,7 +2170,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
         <v>104</v>
@@ -2215,7 +2220,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <v>36</v>
@@ -2265,7 +2270,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <v>116</v>
@@ -2315,7 +2320,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <v>187</v>
@@ -2365,7 +2370,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <v>156</v>
@@ -2415,7 +2420,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C34" s="1">
         <v>149</v>
@@ -2465,7 +2470,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C35" s="1">
         <v>243</v>
@@ -2515,7 +2520,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <v>182</v>
@@ -2565,7 +2570,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <v>39</v>
@@ -2615,7 +2620,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <v>126</v>
@@ -2665,7 +2670,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1">
         <v>168</v>
@@ -2715,7 +2720,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1">
         <v>95</v>
@@ -2765,7 +2770,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
         <v>41</v>
@@ -2815,7 +2820,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
         <v>72</v>
@@ -2865,7 +2870,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <v>126</v>
@@ -2915,7 +2920,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C44" s="1">
         <v>197</v>
@@ -2965,7 +2970,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1">
         <v>50</v>
@@ -3015,7 +3020,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1">
         <v>39</v>
@@ -3065,7 +3070,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="1">
         <v>41</v>
@@ -3115,7 +3120,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1">
         <v>233</v>
@@ -3165,7 +3170,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="1">
         <v>30</v>
@@ -3215,7 +3220,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1">
         <v>178</v>
@@ -3265,7 +3270,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1">
         <v>152</v>
@@ -3315,7 +3320,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" s="1">
         <v>164</v>
@@ -3365,7 +3370,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C53" s="1">
         <v>147</v>
@@ -3415,7 +3420,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C54" s="1">
         <v>208</v>
@@ -3465,7 +3470,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" s="1">
         <v>50</v>
@@ -3515,7 +3520,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C56" s="1">
         <v>164</v>
@@ -3565,7 +3570,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1">
         <v>49</v>
@@ -3615,7 +3620,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" s="1">
         <v>53</v>
@@ -3665,7 +3670,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C59" s="1">
         <v>215</v>
@@ -3715,7 +3720,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" s="1">
         <v>107</v>
@@ -3765,7 +3770,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C61" s="1">
         <v>151</v>
@@ -3815,7 +3820,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C62" s="1">
         <v>213</v>
@@ -3865,7 +3870,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" s="1">
         <v>175</v>
@@ -3915,7 +3920,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C64" s="1">
         <v>420</v>
@@ -3965,7 +3970,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C65" s="1">
         <v>105</v>
@@ -4015,7 +4020,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" s="1">
         <v>121</v>
@@ -4065,7 +4070,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C67" s="1">
         <v>55</v>
@@ -4115,7 +4120,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C68" s="1">
         <v>40</v>
@@ -4165,7 +4170,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C69" s="1">
         <v>94</v>
@@ -4215,7 +4220,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C70" s="1">
         <v>112</v>
@@ -4265,7 +4270,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C71" s="1">
         <v>99</v>
@@ -4315,7 +4320,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C72" s="1">
         <v>398</v>
@@ -4365,7 +4370,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C73" s="1">
         <v>248</v>
@@ -4415,7 +4420,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C74" s="1">
         <v>390</v>
@@ -4465,7 +4470,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C75" s="1">
         <v>131</v>
@@ -4515,7 +4520,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C76" s="1">
         <v>84</v>
@@ -4565,7 +4570,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C77" s="1">
         <v>68</v>
@@ -4615,7 +4620,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78" s="1">
         <v>239</v>
@@ -4665,7 +4670,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C79" s="1">
         <v>112</v>
@@ -4715,7 +4720,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C80" s="1">
         <v>81</v>
@@ -4765,7 +4770,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C81" s="1">
         <v>195</v>
@@ -4815,7 +4820,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C82" s="1">
         <v>102</v>
@@ -4865,7 +4870,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C83" s="1">
         <v>196</v>
@@ -4915,7 +4920,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C84" s="1">
         <v>122</v>
@@ -4965,7 +4970,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C85" s="1">
         <v>85</v>
@@ -5015,7 +5020,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C86" s="1">
         <v>107</v>
@@ -5065,7 +5070,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C87" s="1">
         <v>56</v>
@@ -5115,7 +5120,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C88" s="1">
         <v>192</v>
@@ -5165,7 +5170,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C89" s="1">
         <v>105</v>
@@ -5215,7 +5220,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C90" s="1">
         <v>132</v>
@@ -5265,7 +5270,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C91" s="1">
         <v>121</v>
@@ -5315,7 +5320,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C92" s="1">
         <v>159</v>
@@ -5365,7 +5370,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C93" s="1">
         <v>174</v>
@@ -5415,7 +5420,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C94" s="1">
         <v>119</v>
@@ -5465,7 +5470,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C95" s="1">
         <v>79</v>
@@ -5515,7 +5520,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1">
         <v>85</v>
@@ -5565,7 +5570,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C97" s="1">
         <v>185</v>
@@ -5615,7 +5620,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C98" s="1">
         <v>124</v>
@@ -5665,7 +5670,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C99" s="1">
         <v>150</v>
@@ -5715,7 +5720,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C100" s="1">
         <v>141</v>
@@ -5765,7 +5770,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C101" s="1">
         <v>203</v>
